--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7781868440814</v>
+        <v>12.858412</v>
       </c>
       <c r="H2">
-        <v>12.7781868440814</v>
+        <v>38.575236</v>
       </c>
       <c r="I2">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911666</v>
       </c>
       <c r="J2">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911664</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N2">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O2">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P2">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q2">
-        <v>291.6608843751245</v>
+        <v>298.1412440915627</v>
       </c>
       <c r="R2">
-        <v>291.6608843751245</v>
+        <v>2683.271196824064</v>
       </c>
       <c r="S2">
-        <v>0.04638649781377835</v>
+        <v>0.04616759135282118</v>
       </c>
       <c r="T2">
-        <v>0.04638649781377835</v>
+        <v>0.04616759135282116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7781868440814</v>
+        <v>12.858412</v>
       </c>
       <c r="H3">
-        <v>12.7781868440814</v>
+        <v>38.575236</v>
       </c>
       <c r="I3">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911666</v>
       </c>
       <c r="J3">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911664</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N3">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P3">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q3">
-        <v>90.29705414987208</v>
+        <v>92.68973860401734</v>
       </c>
       <c r="R3">
-        <v>90.29705414987208</v>
+        <v>834.207647436156</v>
       </c>
       <c r="S3">
-        <v>0.01436107592517094</v>
+        <v>0.01435313650584981</v>
       </c>
       <c r="T3">
-        <v>0.01436107592517094</v>
+        <v>0.0143531365058498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.7781868440814</v>
+        <v>12.858412</v>
       </c>
       <c r="H4">
-        <v>12.7781868440814</v>
+        <v>38.575236</v>
       </c>
       <c r="I4">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911666</v>
       </c>
       <c r="J4">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911664</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N4">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O4">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P4">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q4">
-        <v>73.73117139457199</v>
+        <v>74.76131904447733</v>
       </c>
       <c r="R4">
-        <v>73.73117139457199</v>
+        <v>672.8518714002959</v>
       </c>
       <c r="S4">
-        <v>0.01172639528961577</v>
+        <v>0.01157689549850843</v>
       </c>
       <c r="T4">
-        <v>0.01172639528961577</v>
+        <v>0.01157689549850843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.7781868440814</v>
+        <v>12.858412</v>
       </c>
       <c r="H5">
-        <v>12.7781868440814</v>
+        <v>38.575236</v>
       </c>
       <c r="I5">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911666</v>
       </c>
       <c r="J5">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911664</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N5">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O5">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P5">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q5">
-        <v>96.66671722815565</v>
+        <v>98.95685574848267</v>
       </c>
       <c r="R5">
-        <v>96.66671722815565</v>
+        <v>890.611701736344</v>
       </c>
       <c r="S5">
-        <v>0.01537412353725761</v>
+        <v>0.01532360841813939</v>
       </c>
       <c r="T5">
-        <v>0.01537412353725761</v>
+        <v>0.01532360841813939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.7781868440814</v>
+        <v>12.858412</v>
       </c>
       <c r="H6">
-        <v>12.7781868440814</v>
+        <v>38.575236</v>
       </c>
       <c r="I6">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911666</v>
       </c>
       <c r="J6">
-        <v>0.09423715067709945</v>
+        <v>0.09411515985911664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N6">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O6">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P6">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q6">
-        <v>40.17199889804019</v>
+        <v>43.22807381288666</v>
       </c>
       <c r="R6">
-        <v>40.17199889804019</v>
+        <v>389.0526643159799</v>
       </c>
       <c r="S6">
-        <v>0.006389058111276778</v>
+        <v>0.006693928083797852</v>
       </c>
       <c r="T6">
-        <v>0.006389058111276778</v>
+        <v>0.006693928083797849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2021245200756</v>
+        <v>17.22742766666667</v>
       </c>
       <c r="H7">
-        <v>17.2021245200756</v>
+        <v>51.682283</v>
       </c>
       <c r="I7">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="J7">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N7">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O7">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P7">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q7">
-        <v>392.636835873168</v>
+        <v>399.4433151649991</v>
       </c>
       <c r="R7">
-        <v>392.636835873168</v>
+        <v>3594.989836484992</v>
       </c>
       <c r="S7">
-        <v>0.06244597306169634</v>
+        <v>0.0618543596654822</v>
       </c>
       <c r="T7">
-        <v>0.06244597306169634</v>
+        <v>0.06185435966548217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.2021245200756</v>
+        <v>17.22742766666667</v>
       </c>
       <c r="H8">
-        <v>17.2021245200756</v>
+        <v>51.682283</v>
       </c>
       <c r="I8">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="J8">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N8">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O8">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P8">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q8">
-        <v>121.5588086350112</v>
+        <v>124.1837458033659</v>
       </c>
       <c r="R8">
-        <v>121.5588086350112</v>
+        <v>1117.653712230293</v>
       </c>
       <c r="S8">
-        <v>0.01933302582920635</v>
+        <v>0.01923002785603077</v>
       </c>
       <c r="T8">
-        <v>0.01933302582920635</v>
+        <v>0.01923002785603076</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.2021245200756</v>
+        <v>17.22742766666667</v>
       </c>
       <c r="H9">
-        <v>17.2021245200756</v>
+        <v>51.682283</v>
       </c>
       <c r="I9">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="J9">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N9">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O9">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P9">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q9">
-        <v>99.25764952544341</v>
+        <v>100.1636295448709</v>
       </c>
       <c r="R9">
-        <v>99.25764952544341</v>
+        <v>901.4726659038379</v>
       </c>
       <c r="S9">
-        <v>0.01578619207912355</v>
+        <v>0.0155104790393334</v>
       </c>
       <c r="T9">
-        <v>0.01578619207912355</v>
+        <v>0.01551047903933339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.2021245200756</v>
+        <v>17.22742766666667</v>
       </c>
       <c r="H10">
-        <v>17.2021245200756</v>
+        <v>51.682283</v>
       </c>
       <c r="I10">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="J10">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N10">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O10">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P10">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q10">
-        <v>130.1337135695335</v>
+        <v>132.5802964260091</v>
       </c>
       <c r="R10">
-        <v>130.1337135695335</v>
+        <v>1193.222667834082</v>
       </c>
       <c r="S10">
-        <v>0.02069680078261077</v>
+        <v>0.02053024554010408</v>
       </c>
       <c r="T10">
-        <v>0.02069680078261077</v>
+        <v>0.02053024554010407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.2021245200756</v>
+        <v>17.22742766666667</v>
       </c>
       <c r="H11">
-        <v>17.2021245200756</v>
+        <v>51.682283</v>
       </c>
       <c r="I11">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="J11">
-        <v>0.1268630064769669</v>
+        <v>0.1260934949673181</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N11">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O11">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P11">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q11">
-        <v>54.0799516939686</v>
+        <v>57.91605641356278</v>
       </c>
       <c r="R11">
-        <v>54.0799516939686</v>
+        <v>521.2445077220649</v>
       </c>
       <c r="S11">
-        <v>0.008601014724329855</v>
+        <v>0.008968382866367643</v>
       </c>
       <c r="T11">
-        <v>0.008601014724329855</v>
+        <v>0.00896838286636764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>48.4857418663067</v>
+        <v>48.72176233333334</v>
       </c>
       <c r="H12">
-        <v>48.4857418663067</v>
+        <v>146.165287</v>
       </c>
       <c r="I12">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173194</v>
       </c>
       <c r="J12">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173193</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N12">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O12">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P12">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q12">
-        <v>1106.682389674167</v>
+        <v>1129.685908057188</v>
       </c>
       <c r="R12">
-        <v>1106.682389674167</v>
+        <v>10167.17317251469</v>
       </c>
       <c r="S12">
-        <v>0.1760096159591364</v>
+        <v>0.1749334531662704</v>
       </c>
       <c r="T12">
-        <v>0.1760096159591364</v>
+        <v>0.1749334531662703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>48.4857418663067</v>
+        <v>48.72176233333334</v>
       </c>
       <c r="H13">
-        <v>48.4857418663067</v>
+        <v>146.165287</v>
       </c>
       <c r="I13">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173194</v>
       </c>
       <c r="J13">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173193</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N13">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O13">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P13">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q13">
-        <v>342.6244828174877</v>
+        <v>351.2103528027975</v>
       </c>
       <c r="R13">
-        <v>342.6244828174877</v>
+        <v>3160.893175225177</v>
       </c>
       <c r="S13">
-        <v>0.05449187969518426</v>
+        <v>0.05438541754424301</v>
       </c>
       <c r="T13">
-        <v>0.05449187969518426</v>
+        <v>0.05438541754424297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.4857418663067</v>
+        <v>48.72176233333334</v>
       </c>
       <c r="H14">
-        <v>48.4857418663067</v>
+        <v>146.165287</v>
       </c>
       <c r="I14">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173194</v>
       </c>
       <c r="J14">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173193</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N14">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O14">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P14">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q14">
-        <v>279.7666513534712</v>
+        <v>283.2778431902424</v>
       </c>
       <c r="R14">
-        <v>279.7666513534712</v>
+        <v>2549.500588712182</v>
       </c>
       <c r="S14">
-        <v>0.04449480837713154</v>
+        <v>0.04386597279945335</v>
       </c>
       <c r="T14">
-        <v>0.04449480837713154</v>
+        <v>0.04386597279945333</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.4857418663067</v>
+        <v>48.72176233333334</v>
       </c>
       <c r="H15">
-        <v>48.4857418663067</v>
+        <v>146.165287</v>
       </c>
       <c r="I15">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173194</v>
       </c>
       <c r="J15">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173193</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N15">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O15">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P15">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q15">
-        <v>366.7936269658259</v>
+        <v>374.9570636740776</v>
       </c>
       <c r="R15">
-        <v>366.7936269658259</v>
+        <v>3374.613573066698</v>
       </c>
       <c r="S15">
-        <v>0.05833580259420364</v>
+        <v>0.05806262915184655</v>
       </c>
       <c r="T15">
-        <v>0.05833580259420364</v>
+        <v>0.05806262915184652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.4857418663067</v>
+        <v>48.72176233333334</v>
       </c>
       <c r="H16">
-        <v>48.4857418663067</v>
+        <v>146.165287</v>
       </c>
       <c r="I16">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173194</v>
       </c>
       <c r="J16">
-        <v>0.3575748435751224</v>
+        <v>0.3566114113173193</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N16">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O16">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P16">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q16">
-        <v>152.4292290127297</v>
+        <v>163.7953379032539</v>
       </c>
       <c r="R16">
-        <v>152.4292290127297</v>
+        <v>1474.158041129285</v>
       </c>
       <c r="S16">
-        <v>0.0242427369494665</v>
+        <v>0.02536393865550617</v>
       </c>
       <c r="T16">
-        <v>0.0242427369494665</v>
+        <v>0.02536393865550616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.7092669432593</v>
+        <v>52.929924</v>
       </c>
       <c r="H17">
-        <v>52.7092669432593</v>
+        <v>158.789772</v>
       </c>
       <c r="I17">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="J17">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N17">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O17">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P17">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q17">
-        <v>1203.083942895709</v>
+        <v>1227.258341934592</v>
       </c>
       <c r="R17">
-        <v>1203.083942895709</v>
+        <v>11045.32507741133</v>
       </c>
       <c r="S17">
-        <v>0.1913415671302248</v>
+        <v>0.1900426819087677</v>
       </c>
       <c r="T17">
-        <v>0.1913415671302248</v>
+        <v>0.1900426819087677</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.7092669432593</v>
+        <v>52.929924</v>
       </c>
       <c r="H18">
-        <v>52.7092669432593</v>
+        <v>158.789772</v>
       </c>
       <c r="I18">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="J18">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N18">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O18">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P18">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q18">
-        <v>372.4700217214345</v>
+        <v>381.544845498068</v>
       </c>
       <c r="R18">
-        <v>372.4700217214345</v>
+        <v>3433.903609482612</v>
       </c>
       <c r="S18">
-        <v>0.05923859102771371</v>
+        <v>0.05908275644117297</v>
       </c>
       <c r="T18">
-        <v>0.05923859102771371</v>
+        <v>0.05908275644117294</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.7092669432593</v>
+        <v>52.929924</v>
       </c>
       <c r="H19">
-        <v>52.7092669432593</v>
+        <v>158.789772</v>
       </c>
       <c r="I19">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="J19">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N19">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O19">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P19">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q19">
-        <v>304.1367325815683</v>
+        <v>307.744917114488</v>
       </c>
       <c r="R19">
-        <v>304.1367325815683</v>
+        <v>2769.704254030392</v>
       </c>
       <c r="S19">
-        <v>0.04837068882654686</v>
+        <v>0.0476547336398922</v>
       </c>
       <c r="T19">
-        <v>0.04837068882654686</v>
+        <v>0.04765473363989219</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.7092669432593</v>
+        <v>52.929924</v>
       </c>
       <c r="H20">
-        <v>52.7092669432593</v>
+        <v>158.789772</v>
       </c>
       <c r="I20">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="J20">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N20">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O20">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P20">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q20">
-        <v>398.744506171267</v>
+        <v>407.342590519432</v>
       </c>
       <c r="R20">
-        <v>398.744506171267</v>
+        <v>3666.083314674888</v>
       </c>
       <c r="S20">
-        <v>0.06341735266762821</v>
+        <v>0.06307757357423904</v>
       </c>
       <c r="T20">
-        <v>0.06341735266762821</v>
+        <v>0.06307757357423903</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.7092669432593</v>
+        <v>52.929924</v>
       </c>
       <c r="H21">
-        <v>52.7092669432593</v>
+        <v>158.789772</v>
       </c>
       <c r="I21">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="J21">
-        <v>0.3887226874689251</v>
+        <v>0.3874124004263431</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N21">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O21">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P21">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q21">
-        <v>165.7071256977177</v>
+        <v>177.94255321594</v>
       </c>
       <c r="R21">
-        <v>165.7071256977177</v>
+        <v>1601.48297894346</v>
       </c>
       <c r="S21">
-        <v>0.02635448781681147</v>
+        <v>0.02755465486227117</v>
       </c>
       <c r="T21">
-        <v>0.02635448781681147</v>
+        <v>0.02755465486227116</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.42074520250472</v>
+        <v>4.886712</v>
       </c>
       <c r="H22">
-        <v>4.42074520250472</v>
+        <v>14.660136</v>
       </c>
       <c r="I22">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="J22">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N22">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O22">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P22">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q22">
-        <v>100.9030835980318</v>
+        <v>113.305623991296</v>
       </c>
       <c r="R22">
-        <v>100.9030835980318</v>
+        <v>1019.750615921664</v>
       </c>
       <c r="S22">
-        <v>0.01604788614953125</v>
+        <v>0.01754553537986864</v>
       </c>
       <c r="T22">
-        <v>0.01604788614953125</v>
+        <v>0.01754553537986863</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.42074520250472</v>
+        <v>4.886712</v>
       </c>
       <c r="H23">
-        <v>4.42074520250472</v>
+        <v>14.660136</v>
       </c>
       <c r="I23">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="J23">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N23">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O23">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P23">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q23">
-        <v>31.23919487202116</v>
+        <v>35.225816213784</v>
       </c>
       <c r="R23">
-        <v>31.23919487202116</v>
+        <v>317.032345924056</v>
       </c>
       <c r="S23">
-        <v>0.004968361965094541</v>
+        <v>0.005454767229481706</v>
       </c>
       <c r="T23">
-        <v>0.004968361965094541</v>
+        <v>0.005454767229481704</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.42074520250472</v>
+        <v>4.886712</v>
       </c>
       <c r="H24">
-        <v>4.42074520250472</v>
+        <v>14.660136</v>
       </c>
       <c r="I24">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="J24">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N24">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O24">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P24">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q24">
-        <v>25.50805730067872</v>
+        <v>28.412298105744</v>
       </c>
       <c r="R24">
-        <v>25.50805730067872</v>
+        <v>255.710682951696</v>
       </c>
       <c r="S24">
-        <v>0.004056867093256963</v>
+        <v>0.004399684358792295</v>
       </c>
       <c r="T24">
-        <v>0.004056867093256963</v>
+        <v>0.004399684358792294</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.42074520250472</v>
+        <v>4.886712</v>
       </c>
       <c r="H25">
-        <v>4.42074520250472</v>
+        <v>14.660136</v>
       </c>
       <c r="I25">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="J25">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N25">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O25">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P25">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q25">
-        <v>33.44284534594861</v>
+        <v>37.607571951216</v>
       </c>
       <c r="R25">
-        <v>33.44284534594861</v>
+        <v>338.468147560944</v>
       </c>
       <c r="S25">
-        <v>0.005318836208873134</v>
+        <v>0.005823585458314976</v>
       </c>
       <c r="T25">
-        <v>0.005318836208873134</v>
+        <v>0.005823585458314975</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.42074520250472</v>
+        <v>4.886712</v>
       </c>
       <c r="H26">
-        <v>4.42074520250472</v>
+        <v>14.660136</v>
       </c>
       <c r="I26">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="J26">
-        <v>0.03260231180188618</v>
+        <v>0.03576753342990283</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N26">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O26">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P26">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q26">
-        <v>13.89791631398725</v>
+        <v>16.42840088172</v>
       </c>
       <c r="R26">
-        <v>13.89791631398725</v>
+        <v>147.85560793548</v>
       </c>
       <c r="S26">
-        <v>0.002210360385130299</v>
+        <v>0.002543961003445213</v>
       </c>
       <c r="T26">
-        <v>0.002210360385130299</v>
+        <v>0.002543961003445212</v>
       </c>
     </row>
   </sheetData>
